--- a/PP/ticker_list.xlsx
+++ b/PP/ticker_list.xlsx
@@ -14,75 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>AURLNCHF Curncy</t>
+  </si>
+  <si>
+    <t>M1CXAMPE Index</t>
+  </si>
+  <si>
+    <t>SF110T Index</t>
+  </si>
+  <si>
+    <t>FTS7EURB Index</t>
+  </si>
   <si>
     <t>SBR14T Index</t>
   </si>
   <si>
+    <t>M7CXSSD Index</t>
+  </si>
+  <si>
+    <t>SBSZ57L Index</t>
+  </si>
+  <si>
+    <t>ST115T Index</t>
+  </si>
+  <si>
+    <t>BC31TRCH Index</t>
+  </si>
+  <si>
+    <t>M0CAHCHFIndex</t>
+  </si>
+  <si>
+    <t>LEATTREU Index</t>
+  </si>
+  <si>
+    <t>SBWGSZC Index</t>
+  </si>
+  <si>
     <t>JHCC1R10 Index</t>
   </si>
   <si>
-    <t>FTS7EURB Index</t>
+    <t>NDUEAWXZ Index</t>
+  </si>
+  <si>
+    <t>M4CXCSAQ Index</t>
   </si>
   <si>
     <t>LF93TR Index</t>
   </si>
   <si>
-    <t>JPGCHFCP Index</t>
-  </si>
-  <si>
-    <t>ST115T Index</t>
-  </si>
-  <si>
-    <t>UCBIFX28 Index</t>
-  </si>
-  <si>
-    <t>M4CXCSAQ Index</t>
+    <t>H05394CH Index</t>
+  </si>
+  <si>
+    <t>SBSZ35L Index</t>
   </si>
   <si>
     <t>LECPTRCH Index</t>
-  </si>
-  <si>
-    <t>SF110T Index</t>
-  </si>
-  <si>
-    <t>NDUEAWXZ Index</t>
-  </si>
-  <si>
-    <t>SBWGNSUU Index</t>
-  </si>
-  <si>
-    <t>SBWGSZC Index</t>
-  </si>
-  <si>
-    <t>SBSZ57L Index</t>
-  </si>
-  <si>
-    <t>H05394CH Index</t>
-  </si>
-  <si>
-    <t>M1CXAMPE Index</t>
-  </si>
-  <si>
-    <t>LG30TRCH Index</t>
-  </si>
-  <si>
-    <t>BC31TRCH Index</t>
-  </si>
-  <si>
-    <t>M0CAHCHFIndex</t>
-  </si>
-  <si>
-    <t>SBSZ35L Index</t>
-  </si>
-  <si>
-    <t>AURLNCHF Curncy</t>
-  </si>
-  <si>
-    <t>LEATTREU Index</t>
-  </si>
-  <si>
-    <t>M7CXSSD Index</t>
   </si>
 </sst>
 </file>
@@ -440,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,38 +591,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
